--- a/df.xlsx
+++ b/df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\Desktop\bullguer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C64432-BED5-4808-88CF-55D7A39998AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3C4765-187C-4DEF-B4D9-38E433FDC708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="26">
   <si>
     <t>Paraíso</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Paulinho</t>
+  </si>
+  <si>
+    <t>Perdizes</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2691,6 +2694,353 @@
         <v>7.6</v>
       </c>
     </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" ref="B143:B149" si="0">$B$142</f>
+        <v>Perdizes</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="0"/>
+        <v>Perdizes</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="0"/>
+        <v>Perdizes</v>
+      </c>
+      <c r="C145" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="0"/>
+        <v>Perdizes</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="0"/>
+        <v>Perdizes</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="0"/>
+        <v>Perdizes</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="0"/>
+        <v>Perdizes</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E129" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\Desktop\bullguer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3C4765-187C-4DEF-B4D9-38E433FDC708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20792697-9993-44D9-AC05-980BB73CEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="28">
   <si>
     <t>Paraíso</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Perdizes</t>
+  </si>
+  <si>
+    <t>Morumbi</t>
+  </si>
+  <si>
+    <t>Saara</t>
   </si>
 </sst>
 </file>
@@ -489,16 +495,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3041,6 +3048,142 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B153" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B157" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E129" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\Desktop\bullguer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20792697-9993-44D9-AC05-980BB73CEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F47D260-34D8-4614-83B9-1FCE689E05C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="30">
   <si>
     <t>Paraíso</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Saara</t>
+  </si>
+  <si>
+    <t>Eldorado</t>
+  </si>
+  <si>
+    <t>Dany</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3184,6 +3190,346 @@
         <v>8</v>
       </c>
     </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B159" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B163" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B165" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B166" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" t="s">
+        <v>29</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B167" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E129" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\Desktop\bullguer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F47D260-34D8-4614-83B9-1FCE689E05C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3BADE0-A9BF-406B-9DDA-F7D063EAD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="33">
   <si>
     <t>Paraíso</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Dany</t>
+  </si>
+  <si>
+    <t>Berrini</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Livs</t>
   </si>
 </sst>
 </file>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3530,6 +3539,550 @@
         <v>5</v>
       </c>
     </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B178" t="s">
+        <v>30</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B179" t="s">
+        <v>30</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B181" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B182" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B183" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" t="s">
+        <v>31</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B187" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B188" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" t="s">
+        <v>31</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B194" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" t="s">
+        <v>31</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B198" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B201" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B202" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204" t="s">
+        <v>31</v>
+      </c>
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B205" t="s">
+        <v>30</v>
+      </c>
+      <c r="C205" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B206" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B207" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B208" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B209" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209">
+        <v>5.6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E129" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\Desktop\bullguer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3BADE0-A9BF-406B-9DDA-F7D063EAD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AB559C-6970-4B94-A3AD-53D977183D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="35">
   <si>
     <t>Paraíso</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Livs</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Cotia</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4083,6 +4089,211 @@
         <v>5.6</v>
       </c>
     </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B210" t="s">
+        <v>33</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B211" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B213" t="s">
+        <v>33</v>
+      </c>
+      <c r="C213" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B214" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s">
+        <v>15</v>
+      </c>
+      <c r="E214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B215" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B216" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B217" t="s">
+        <v>33</v>
+      </c>
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B218" t="s">
+        <v>34</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B219" t="s">
+        <v>34</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B220" t="s">
+        <v>34</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <f>$A$220</f>
+        <v>45656</v>
+      </c>
+      <c r="B221" t="s">
+        <v>34</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E129" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/df.xlsx
+++ b/df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\Desktop\bullguer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AB559C-6970-4B94-A3AD-53D977183D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E904A441-ABA4-4C94-B663-32F5C582F3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}">
   <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\Desktop\bullguer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E904A441-ABA4-4C94-B663-32F5C582F3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B9449-2243-4AEE-AAF6-1CAD4087F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="35">
   <si>
     <t>Paraíso</t>
   </si>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4294,6 +4294,210 @@
         <v>7</v>
       </c>
     </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B228" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>16</v>
+      </c>
+      <c r="E233">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E129" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\Desktop\bullguer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alan\Desktop\bullguer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B9449-2243-4AEE-AAF6-1CAD4087F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68ABB94-377B-4A02-B5F6-5FC966D5D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B52CD822-4C63-4886-B87F-4F177211C4B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="35">
   <si>
     <t>Paraíso</t>
   </si>
@@ -516,11 +516,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}">
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4498,6 +4496,414 @@
         <v>4</v>
       </c>
     </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B235" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B236" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" t="s">
+        <v>14</v>
+      </c>
+      <c r="E238">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>14</v>
+      </c>
+      <c r="E239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B240" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B241" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B242" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s">
+        <v>16</v>
+      </c>
+      <c r="E243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" t="s">
+        <v>16</v>
+      </c>
+      <c r="E245">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B246" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B247" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B248" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" t="s">
+        <v>24</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B249" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B250" t="s">
+        <v>18</v>
+      </c>
+      <c r="C250" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B251" t="s">
+        <v>18</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B252" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" t="s">
+        <v>24</v>
+      </c>
+      <c r="D252" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B253" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B254" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s">
+        <v>16</v>
+      </c>
+      <c r="E256">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B257" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" t="s">
+        <v>24</v>
+      </c>
+      <c r="D257" t="s">
+        <v>16</v>
+      </c>
+      <c r="E257">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E129" xr:uid="{FDA0158E-8D3C-44EC-B0E3-70A6148C8A8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
